--- a/presence_absence/Rogerio/INCT40.xlsx
+++ b/presence_absence/Rogerio/INCT40.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="427">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1618,12 +1618,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ387"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D388" activeCellId="0" sqref="D388"/>
+      <selection pane="bottomLeft" activeCell="A303" activeCellId="0" sqref="A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P223" s="1" t="n">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="O225" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P225" s="1" t="n">
         <v>0</v>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="O227" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P227" s="1" t="n">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>32</v>
       </c>
       <c r="H236" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" s="1" t="n">
         <v>0</v>
@@ -14768,7 +14768,7 @@
         <v>20</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>22</v>
@@ -14776,8 +14776,11 @@
       <c r="F242" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G242" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H242" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" s="1" t="n">
         <v>0</v>
@@ -14798,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="O242" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P242" s="1" t="n">
         <v>0</v>
@@ -14821,7 +14824,7 @@
         <v>20</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>22</v>
@@ -14830,7 +14833,7 @@
         <v>23</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="H243" s="1" t="n">
         <v>0</v>
@@ -14842,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="K243" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L243" s="1" t="n">
         <v>0</v>
@@ -14877,7 +14880,7 @@
         <v>20</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>22</v>
@@ -14886,10 +14889,10 @@
         <v>23</v>
       </c>
       <c r="H244" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" s="1" t="n">
         <v>0</v>
@@ -14907,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="O244" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P244" s="1" t="n">
         <v>0</v>
@@ -14930,7 +14933,7 @@
         <v>20</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>22</v>
@@ -14938,6 +14941,9 @@
       <c r="F245" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G245" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="H245" s="1" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="K245" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L245" s="1" t="n">
         <v>0</v>
@@ -14960,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="O245" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P245" s="1" t="n">
         <v>0</v>
@@ -14983,7 +14989,7 @@
         <v>20</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>22</v>
@@ -14992,7 +14998,7 @@
         <v>23</v>
       </c>
       <c r="H246" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" s="1" t="n">
         <v>0</v>
@@ -15001,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="K246" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L246" s="1" t="n">
         <v>0</v>
@@ -15036,7 +15042,7 @@
         <v>20</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>22</v>
@@ -15048,13 +15054,13 @@
         <v>1</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K247" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L247" s="1" t="n">
         <v>0</v>
@@ -15066,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P247" s="1" t="n">
         <v>0</v>
@@ -15089,7 +15095,7 @@
         <v>20</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>22</v>
@@ -15097,20 +15103,17 @@
       <c r="F248" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="H248" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K248" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L248" s="1" t="n">
         <v>0</v>
@@ -15145,7 +15148,7 @@
         <v>20</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>22</v>
@@ -15157,16 +15160,16 @@
         <v>32</v>
       </c>
       <c r="H249" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J249" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K249" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L249" s="1" t="n">
         <v>0</v>
@@ -15201,7 +15204,7 @@
         <v>20</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>22</v>
@@ -15209,14 +15212,11 @@
       <c r="F250" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H250" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I250" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J250" s="1" t="n">
         <v>0</v>
@@ -15257,7 +15257,7 @@
         <v>20</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>22</v>
@@ -15266,19 +15266,19 @@
         <v>23</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H251" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K251" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L251" s="1" t="n">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>20</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>22</v>
@@ -15328,13 +15328,13 @@
         <v>0</v>
       </c>
       <c r="I252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="J252" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K252" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="L252" s="1" t="n">
         <v>0</v>
@@ -15369,7 +15369,7 @@
         <v>20</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>22</v>
@@ -15378,13 +15378,13 @@
         <v>23</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H253" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" s="1" t="n">
         <v>0</v>
@@ -15402,16 +15402,16 @@
         <v>0</v>
       </c>
       <c r="O253" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P253" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q253" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R253" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S253" s="1" t="n">
         <v>0</v>
@@ -15425,7 +15425,7 @@
         <v>20</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>22</v>
@@ -15434,19 +15434,19 @@
         <v>23</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H254" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K254" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L254" s="1" t="n">
         <v>0</v>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="Q254" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R254" s="1" t="n">
         <v>0</v>
@@ -15481,7 +15481,7 @@
         <v>20</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>22</v>
@@ -15490,19 +15490,19 @@
         <v>23</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H255" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I255" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K255" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L255" s="1" t="n">
         <v>0</v>
@@ -15514,13 +15514,13 @@
         <v>0</v>
       </c>
       <c r="O255" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q255" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" s="1" t="n">
         <v>0</v>
@@ -15537,7 +15537,7 @@
         <v>20</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>22</v>
@@ -15545,17 +15545,20 @@
       <c r="F256" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G256" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H256" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K256" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L256" s="1" t="n">
         <v>0</v>
@@ -15567,13 +15570,13 @@
         <v>0</v>
       </c>
       <c r="O256" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P256" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q256" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R256" s="1" t="n">
         <v>0</v>
@@ -15590,7 +15593,7 @@
         <v>20</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>22</v>
@@ -15599,13 +15602,13 @@
         <v>23</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H257" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I257" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J257" s="1" t="n">
         <v>0</v>
@@ -15629,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="Q257" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R257" s="1" t="n">
         <v>0</v>
@@ -15646,7 +15649,7 @@
         <v>20</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>22</v>
@@ -15655,19 +15658,19 @@
         <v>23</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H258" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J258" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K258" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L258" s="1" t="n">
         <v>0</v>
@@ -15702,7 +15705,7 @@
         <v>20</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>22</v>
@@ -15711,19 +15714,19 @@
         <v>23</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H259" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J259" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K259" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L259" s="1" t="n">
         <v>0</v>
@@ -15758,7 +15761,7 @@
         <v>20</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>22</v>
@@ -15767,19 +15770,19 @@
         <v>23</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H260" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K260" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L260" s="1" t="n">
         <v>0</v>
@@ -15794,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="P260" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q260" s="1" t="n">
         <v>0</v>
@@ -15814,7 +15817,7 @@
         <v>20</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>22</v>
@@ -15823,19 +15826,19 @@
         <v>23</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="H261" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J261" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K261" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L261" s="1" t="n">
         <v>0</v>
@@ -15870,7 +15873,7 @@
         <v>20</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>22</v>
@@ -15879,19 +15882,19 @@
         <v>23</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="H262" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K262" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L262" s="1" t="n">
         <v>0</v>
@@ -15926,7 +15929,7 @@
         <v>20</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>22</v>
@@ -15934,17 +15937,20 @@
       <c r="F263" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G263" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H263" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K263" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L263" s="1" t="n">
         <v>0</v>
@@ -15979,7 +15985,7 @@
         <v>20</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>22</v>
@@ -15988,10 +15994,10 @@
         <v>23</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="H264" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" s="1" t="n">
         <v>0</v>
@@ -16000,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="K264" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L264" s="1" t="n">
         <v>0</v>
@@ -16035,7 +16041,7 @@
         <v>20</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>22</v>
@@ -16043,11 +16049,14 @@
       <c r="F265" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G265" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H265" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" s="1" t="n">
         <v>0</v>
@@ -16088,7 +16097,7 @@
         <v>20</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>22</v>
@@ -16096,8 +16105,11 @@
       <c r="F266" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G266" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H266" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" s="1" t="n">
         <v>1</v>
@@ -16141,7 +16153,7 @@
         <v>20</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>22</v>
@@ -16149,8 +16161,11 @@
       <c r="F267" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G267" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H267" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" s="1" t="n">
         <v>1</v>
@@ -16159,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L267" s="1" t="n">
         <v>0</v>
@@ -16194,7 +16209,7 @@
         <v>20</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>22</v>
@@ -16203,10 +16218,10 @@
         <v>23</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H268" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" s="1" t="n">
         <v>1</v>
@@ -16215,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L268" s="1" t="n">
         <v>0</v>
@@ -16250,7 +16265,7 @@
         <v>20</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>22</v>
@@ -16258,17 +16273,20 @@
       <c r="F269" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G269" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="H269" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K269" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L269" s="1" t="n">
         <v>0</v>
@@ -16303,7 +16321,7 @@
         <v>20</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>22</v>
@@ -16312,10 +16330,10 @@
         <v>23</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="H270" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" s="1" t="n">
         <v>0</v>
@@ -16324,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="K270" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L270" s="1" t="n">
         <v>0</v>
@@ -16359,7 +16377,7 @@
         <v>20</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>22</v>
@@ -16368,7 +16386,7 @@
         <v>23</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="H271" s="1" t="n">
         <v>0</v>
@@ -16380,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="K271" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L271" s="1" t="n">
         <v>0</v>
@@ -16415,7 +16433,7 @@
         <v>20</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>22</v>
@@ -16430,14 +16448,14 @@
         <v>0</v>
       </c>
       <c r="I272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J272" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K272" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="L272" s="1" t="n">
         <v>0</v>
       </c>
@@ -16448,16 +16466,16 @@
         <v>0</v>
       </c>
       <c r="O272" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P272" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q272" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R272" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S272" s="1" t="n">
         <v>0</v>
@@ -16471,7 +16489,7 @@
         <v>20</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>22</v>
@@ -16483,10 +16501,10 @@
         <v>283</v>
       </c>
       <c r="H273" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J273" s="1" t="n">
         <v>0</v>
@@ -16510,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="Q273" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R273" s="1" t="n">
         <v>0</v>
@@ -16527,7 +16545,7 @@
         <v>20</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>22</v>
@@ -16539,10 +16557,10 @@
         <v>283</v>
       </c>
       <c r="H274" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" s="1" t="n">
         <v>0</v>
@@ -16560,13 +16578,13 @@
         <v>0</v>
       </c>
       <c r="O274" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P274" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q274" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R274" s="1" t="n">
         <v>0</v>
@@ -16583,7 +16601,7 @@
         <v>20</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>22</v>
@@ -16598,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275" s="1" t="n">
         <v>0</v>
@@ -16616,13 +16634,13 @@
         <v>0</v>
       </c>
       <c r="O275" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P275" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q275" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R275" s="1" t="n">
         <v>0</v>
@@ -16639,7 +16657,7 @@
         <v>20</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>22</v>
@@ -16654,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J276" s="1" t="n">
         <v>0</v>
@@ -16678,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="Q276" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R276" s="1" t="n">
         <v>0</v>
@@ -16695,7 +16713,7 @@
         <v>20</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>22</v>
@@ -16710,7 +16728,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277" s="1" t="n">
         <v>0</v>
@@ -16751,7 +16769,7 @@
         <v>20</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>22</v>
@@ -16763,16 +16781,16 @@
         <v>283</v>
       </c>
       <c r="H278" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="J278" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K278" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="L278" s="1" t="n">
         <v>0</v>
@@ -16807,7 +16825,7 @@
         <v>20</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>22</v>
@@ -16822,13 +16840,13 @@
         <v>1</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K279" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L279" s="1" t="n">
         <v>0</v>
@@ -16863,7 +16881,7 @@
         <v>20</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>22</v>
@@ -16875,16 +16893,16 @@
         <v>283</v>
       </c>
       <c r="H280" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J280" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K280" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L280" s="1" t="n">
         <v>0</v>
@@ -16919,7 +16937,7 @@
         <v>20</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>22</v>
@@ -16934,13 +16952,13 @@
         <v>0</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J281" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K281" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L281" s="1" t="n">
         <v>0</v>
@@ -16964,7 +16982,7 @@
         <v>0</v>
       </c>
       <c r="S281" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16975,7 +16993,7 @@
         <v>20</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>22</v>
@@ -16990,16 +17008,16 @@
         <v>0</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J282" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K282" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L282" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M282" s="1" t="n">
         <v>0</v>
@@ -17020,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="S282" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17031,7 +17049,7 @@
         <v>20</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>22</v>
@@ -17046,13 +17064,13 @@
         <v>0</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J283" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K283" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L283" s="1" t="n">
         <v>0</v>
@@ -17076,7 +17094,7 @@
         <v>0</v>
       </c>
       <c r="S283" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17087,7 +17105,7 @@
         <v>20</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>22</v>
@@ -17102,7 +17120,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" s="1" t="n">
         <v>0</v>
@@ -17132,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="S284" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17143,7 +17161,7 @@
         <v>20</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>22</v>
@@ -17199,7 +17217,7 @@
         <v>20</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>22</v>
@@ -17211,7 +17229,7 @@
         <v>283</v>
       </c>
       <c r="H286" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" s="1" t="n">
         <v>1</v>
@@ -17220,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="K286" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L286" s="1" t="n">
         <v>0</v>
@@ -17255,7 +17273,7 @@
         <v>20</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>22</v>
@@ -17264,19 +17282,19 @@
         <v>23</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H287" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I287" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K287" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L287" s="1" t="n">
         <v>0</v>
@@ -17311,7 +17329,7 @@
         <v>20</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>22</v>
@@ -17323,7 +17341,7 @@
         <v>283</v>
       </c>
       <c r="H288" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="1" t="n">
         <v>0</v>
@@ -17367,7 +17385,7 @@
         <v>20</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>22</v>
@@ -17423,7 +17441,7 @@
         <v>20</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>22</v>
@@ -17432,7 +17450,7 @@
         <v>23</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="H290" s="1" t="n">
         <v>0</v>
@@ -17444,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="K290" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L290" s="1" t="n">
         <v>0</v>
@@ -17479,7 +17497,7 @@
         <v>20</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>22</v>
@@ -17494,7 +17512,7 @@
         <v>0</v>
       </c>
       <c r="I291" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" s="1" t="n">
         <v>0</v>
@@ -17535,7 +17553,7 @@
         <v>20</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>22</v>
@@ -17550,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="I292" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" s="1" t="n">
         <v>0</v>
@@ -17580,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="S292" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17591,7 +17609,7 @@
         <v>20</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>22</v>
@@ -17606,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="I293" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" s="1" t="n">
         <v>0</v>
@@ -17636,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="S293" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17647,7 +17665,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>22</v>
@@ -17662,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="I294" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J294" s="1" t="n">
         <v>0</v>
@@ -17703,7 +17721,7 @@
         <v>20</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>22</v>
@@ -17715,16 +17733,16 @@
         <v>283</v>
       </c>
       <c r="H295" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K295" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L295" s="1" t="n">
         <v>0</v>
@@ -17759,7 +17777,7 @@
         <v>20</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>22</v>
@@ -17771,16 +17789,16 @@
         <v>283</v>
       </c>
       <c r="H296" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K296" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L296" s="1" t="n">
         <v>0</v>
@@ -17815,7 +17833,7 @@
         <v>20</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>22</v>
@@ -17836,7 +17854,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L297" s="1" t="n">
         <v>0</v>
@@ -17871,7 +17889,7 @@
         <v>20</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>22</v>
@@ -17880,10 +17898,10 @@
         <v>23</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="H298" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" s="1" t="n">
         <v>0</v>
@@ -17892,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L298" s="1" t="n">
         <v>0</v>
@@ -17927,7 +17945,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>22</v>
@@ -17935,23 +17953,20 @@
       <c r="F299" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G299" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H299" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I299" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K299" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L299" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M299" s="1" t="n">
         <v>0</v>
@@ -17983,7 +17998,7 @@
         <v>20</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>22</v>
@@ -17991,9 +18006,6 @@
       <c r="F300" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G300" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H300" s="1" t="n">
         <v>0</v>
       </c>
@@ -18004,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="K300" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L300" s="1" t="n">
         <v>0</v>
@@ -18039,7 +18051,7 @@
         <v>20</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>22</v>
@@ -18047,14 +18059,11 @@
       <c r="F301" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G301" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H301" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I301" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J301" s="1" t="n">
         <v>0</v>
@@ -18063,7 +18072,7 @@
         <v>3</v>
       </c>
       <c r="L301" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M301" s="1" t="n">
         <v>0</v>
@@ -18095,7 +18104,7 @@
         <v>20</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>22</v>
@@ -18103,14 +18112,11 @@
       <c r="F302" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G302" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H302" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I302" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J302" s="1" t="n">
         <v>0</v>
@@ -18140,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="S302" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18151,7 +18157,7 @@
         <v>20</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>22</v>
@@ -18159,21 +18165,18 @@
       <c r="F303" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G303" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H303" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J303" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K303" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="L303" s="1" t="n">
         <v>0</v>
       </c>
@@ -18196,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="S303" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18207,7 +18210,7 @@
         <v>20</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>22</v>
@@ -18215,11 +18218,8 @@
       <c r="F304" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G304" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H304" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" s="1" t="n">
         <v>1</v>
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
       <c r="K304" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L304" s="1" t="n">
         <v>0</v>
@@ -18263,7 +18263,7 @@
         <v>20</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>22</v>
@@ -18271,11 +18271,8 @@
       <c r="F305" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G305" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H305" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" s="1" t="n">
         <v>1</v>
@@ -18284,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="K305" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L305" s="1" t="n">
         <v>0</v>
@@ -18319,7 +18316,7 @@
         <v>20</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>22</v>
@@ -18327,11 +18324,8 @@
       <c r="F306" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="H306" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" s="1" t="n">
         <v>0</v>
@@ -18375,7 +18369,7 @@
         <v>20</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>22</v>
@@ -18384,10 +18378,10 @@
         <v>23</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="H307" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" s="1" t="n">
         <v>0</v>
@@ -18396,7 +18390,7 @@
         <v>0</v>
       </c>
       <c r="K307" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L307" s="1" t="n">
         <v>0</v>
@@ -18431,7 +18425,7 @@
         <v>20</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>22</v>
@@ -18439,23 +18433,20 @@
       <c r="F308" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G308" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H308" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K308" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L308" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308" s="1" t="n">
         <v>0</v>
@@ -18472,11 +18463,8 @@
       <c r="Q308" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R308" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S308" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18487,7 +18475,7 @@
         <v>20</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>22</v>
@@ -18495,20 +18483,17 @@
       <c r="F309" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G309" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="H309" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I309" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K309" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L309" s="1" t="n">
         <v>0</v>
@@ -18532,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="S309" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18543,7 +18528,7 @@
         <v>20</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>22</v>
@@ -18551,9 +18536,6 @@
       <c r="F310" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G310" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H310" s="1" t="n">
         <v>0</v>
       </c>
@@ -18564,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="K310" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L310" s="1" t="n">
         <v>0</v>
@@ -18588,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="S310" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,7 +18581,7 @@
         <v>20</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>22</v>
@@ -18607,14 +18589,11 @@
       <c r="F311" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G311" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H311" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I311" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J311" s="1" t="n">
         <v>0</v>
@@ -18655,7 +18634,7 @@
         <v>20</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>22</v>
@@ -18663,20 +18642,17 @@
       <c r="F312" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G312" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H312" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I312" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K312" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L312" s="1" t="n">
         <v>0</v>
@@ -18700,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="S312" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18711,7 +18687,7 @@
         <v>20</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>22</v>
@@ -18719,11 +18695,8 @@
       <c r="F313" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G313" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H313" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" s="1" t="n">
         <v>0</v>
@@ -18732,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="K313" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L313" s="1" t="n">
         <v>0</v>
@@ -18767,7 +18740,7 @@
         <v>20</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>22</v>
@@ -18775,11 +18748,8 @@
       <c r="F314" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G314" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H314" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" s="1" t="n">
         <v>0</v>
@@ -18788,7 +18758,7 @@
         <v>0</v>
       </c>
       <c r="K314" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L314" s="1" t="n">
         <v>0</v>
@@ -18823,16 +18793,13 @@
         <v>20</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="H315" s="1" t="n">
         <v>1</v>
@@ -18879,7 +18846,7 @@
         <v>20</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>22</v>
@@ -18887,9 +18854,6 @@
       <c r="F316" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G316" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="H316" s="1" t="n">
         <v>1</v>
       </c>
@@ -18900,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="K316" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L316" s="1" t="n">
         <v>0</v>
@@ -18935,7 +18899,7 @@
         <v>20</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>22</v>
@@ -18943,9 +18907,6 @@
       <c r="F317" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G317" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H317" s="1" t="n">
         <v>0</v>
       </c>
@@ -18956,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="K317" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317" s="1" t="n">
         <v>0</v>
@@ -18991,7 +18952,7 @@
         <v>20</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>22</v>
@@ -18999,20 +18960,23 @@
       <c r="F318" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G318" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H318" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K318" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L318" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M318" s="1" t="n">
         <v>0</v>
@@ -19044,7 +19008,7 @@
         <v>20</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>22</v>
@@ -19062,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="K319" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L319" s="1" t="n">
         <v>0</v>
@@ -19097,7 +19061,7 @@
         <v>20</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>22</v>
@@ -19105,17 +19069,20 @@
       <c r="F320" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G320" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H320" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I320" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K320" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L320" s="1" t="n">
         <v>0</v>
@@ -19139,7 +19106,7 @@
         <v>0</v>
       </c>
       <c r="S320" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19150,7 +19117,7 @@
         <v>20</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>22</v>
@@ -19158,6 +19125,9 @@
       <c r="F321" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G321" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H321" s="1" t="n">
         <v>0</v>
       </c>
@@ -19168,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="K321" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L321" s="1" t="n">
         <v>0</v>
@@ -19203,7 +19173,7 @@
         <v>20</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>22</v>
@@ -19215,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="1" t="n">
         <v>0</v>
@@ -19256,7 +19226,7 @@
         <v>20</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>22</v>
@@ -19264,17 +19234,20 @@
       <c r="F323" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G323" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H323" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I323" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K323" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L323" s="1" t="n">
         <v>0</v>
@@ -19309,7 +19282,7 @@
         <v>20</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>22</v>
@@ -19318,16 +19291,16 @@
         <v>23</v>
       </c>
       <c r="H324" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K324" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L324" s="1" t="n">
         <v>0</v>
@@ -19362,7 +19335,7 @@
         <v>20</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>22</v>
@@ -19374,13 +19347,13 @@
         <v>0</v>
       </c>
       <c r="I325" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K325" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325" s="1" t="n">
         <v>0</v>
@@ -19415,7 +19388,7 @@
         <v>20</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>22</v>
@@ -19433,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="K326" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L326" s="1" t="n">
         <v>0</v>
@@ -19468,7 +19441,7 @@
         <v>20</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>22</v>
@@ -19476,9 +19449,6 @@
       <c r="F327" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G327" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H327" s="1" t="n">
         <v>0</v>
       </c>
@@ -19489,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="K327" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L327" s="1" t="n">
         <v>0</v>
@@ -19524,7 +19494,7 @@
         <v>20</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>22</v>
@@ -19532,20 +19502,23 @@
       <c r="F328" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G328" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H328" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I328" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J328" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K328" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L328" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M328" s="1" t="n">
         <v>0</v>
@@ -19562,8 +19535,11 @@
       <c r="Q328" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="R328" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="S328" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19574,7 +19550,7 @@
         <v>20</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>22</v>
@@ -19586,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="I329" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" s="1" t="n">
         <v>0</v>
@@ -19616,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="S329" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19627,7 +19603,7 @@
         <v>20</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>22</v>
@@ -19639,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="I330" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="1" t="n">
         <v>0</v>
@@ -19669,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="S330" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19680,7 +19656,7 @@
         <v>20</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>22</v>
@@ -19689,10 +19665,10 @@
         <v>23</v>
       </c>
       <c r="H331" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="1" t="n">
         <v>0</v>
@@ -19722,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="S331" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19733,7 +19709,7 @@
         <v>20</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>22</v>
@@ -19751,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="K332" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L332" s="1" t="n">
         <v>0</v>
@@ -19786,7 +19762,7 @@
         <v>20</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>22</v>
@@ -19795,7 +19771,7 @@
         <v>23</v>
       </c>
       <c r="H333" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="1" t="n">
         <v>0</v>
@@ -19804,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="K333" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L333" s="1" t="n">
         <v>0</v>
@@ -19839,7 +19815,7 @@
         <v>20</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>22</v>
@@ -19851,13 +19827,13 @@
         <v>0</v>
       </c>
       <c r="I334" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K334" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L334" s="1" t="n">
         <v>0</v>
@@ -19892,7 +19868,7 @@
         <v>20</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>22</v>
@@ -19910,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L335" s="1" t="n">
         <v>0</v>
@@ -19945,7 +19921,7 @@
         <v>20</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>22</v>
@@ -19954,16 +19930,16 @@
         <v>23</v>
       </c>
       <c r="H336" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K336" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L336" s="1" t="n">
         <v>0</v>
@@ -19998,7 +19974,7 @@
         <v>20</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>22</v>
@@ -20016,7 +19992,7 @@
         <v>0</v>
       </c>
       <c r="K337" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L337" s="1" t="n">
         <v>0</v>
@@ -20051,7 +20027,7 @@
         <v>20</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>22</v>
@@ -20059,9 +20035,6 @@
       <c r="F338" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G338" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H338" s="1" t="n">
         <v>0</v>
       </c>
@@ -20072,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="K338" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L338" s="1" t="n">
         <v>0</v>
@@ -20107,7 +20080,7 @@
         <v>20</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>22</v>
@@ -20115,17 +20088,20 @@
       <c r="F339" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G339" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H339" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I339" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K339" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L339" s="1" t="n">
         <v>0</v>
@@ -20149,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="S339" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20160,7 +20136,7 @@
         <v>20</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>22</v>
@@ -20168,20 +20144,17 @@
       <c r="F340" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G340" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H340" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I340" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K340" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L340" s="1" t="n">
         <v>0</v>
@@ -20216,7 +20189,7 @@
         <v>20</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>22</v>
@@ -20224,20 +20197,17 @@
       <c r="F341" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G341" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H341" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I341" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K341" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L341" s="1" t="n">
         <v>0</v>
@@ -20272,7 +20242,7 @@
         <v>20</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>22</v>
@@ -20284,13 +20254,13 @@
         <v>0</v>
       </c>
       <c r="I342" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K342" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L342" s="1" t="n">
         <v>0</v>
@@ -20325,7 +20295,7 @@
         <v>20</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>22</v>
@@ -20333,9 +20303,6 @@
       <c r="F343" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G343" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H343" s="1" t="n">
         <v>0</v>
       </c>
@@ -20346,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="K343" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L343" s="1" t="n">
         <v>0</v>
@@ -20381,7 +20348,7 @@
         <v>20</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>22</v>
@@ -20390,10 +20357,10 @@
         <v>23</v>
       </c>
       <c r="H344" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I344" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" s="1" t="n">
         <v>0</v>
@@ -20434,7 +20401,7 @@
         <v>20</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>22</v>
@@ -20442,8 +20409,11 @@
       <c r="F345" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G345" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H345" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" s="1" t="n">
         <v>0</v>
@@ -20487,7 +20457,7 @@
         <v>20</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>22</v>
@@ -20495,8 +20465,11 @@
       <c r="F346" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G346" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H346" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" s="1" t="n">
         <v>0</v>
@@ -20540,7 +20513,7 @@
         <v>20</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>22</v>
@@ -20548,8 +20521,11 @@
       <c r="F347" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G347" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H347" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I347" s="1" t="n">
         <v>0</v>
@@ -20558,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="K347" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L347" s="1" t="n">
         <v>0</v>
@@ -20593,7 +20569,7 @@
         <v>20</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>22</v>
@@ -20602,7 +20578,7 @@
         <v>23</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H348" s="1" t="n">
         <v>0</v>
@@ -20614,7 +20590,7 @@
         <v>0</v>
       </c>
       <c r="K348" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L348" s="1" t="n">
         <v>0</v>
@@ -20649,7 +20625,7 @@
         <v>20</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>22</v>
@@ -20657,17 +20633,20 @@
       <c r="F349" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G349" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H349" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K349" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L349" s="1" t="n">
         <v>0</v>
@@ -20702,7 +20681,7 @@
         <v>20</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>22</v>
@@ -20710,6 +20689,9 @@
       <c r="F350" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G350" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H350" s="1" t="n">
         <v>0</v>
       </c>
@@ -20720,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="K350" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L350" s="1" t="n">
         <v>0</v>
@@ -20755,7 +20737,7 @@
         <v>20</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>22</v>
@@ -20763,8 +20745,11 @@
       <c r="F351" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G351" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H351" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" s="1" t="n">
         <v>0</v>
@@ -20773,7 +20758,7 @@
         <v>0</v>
       </c>
       <c r="K351" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L351" s="1" t="n">
         <v>0</v>
@@ -20808,7 +20793,7 @@
         <v>20</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>22</v>
@@ -20826,7 +20811,7 @@
         <v>0</v>
       </c>
       <c r="K352" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L352" s="1" t="n">
         <v>0</v>
@@ -20861,7 +20846,7 @@
         <v>20</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>22</v>
@@ -20873,13 +20858,13 @@
         <v>0</v>
       </c>
       <c r="I353" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J353" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K353" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L353" s="1" t="n">
         <v>0</v>
@@ -20914,7 +20899,7 @@
         <v>20</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>22</v>
@@ -20922,17 +20907,20 @@
       <c r="F354" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G354" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H354" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K354" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L354" s="1" t="n">
         <v>0</v>
@@ -20967,7 +20955,7 @@
         <v>20</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>22</v>
@@ -20975,17 +20963,20 @@
       <c r="F355" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G355" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H355" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K355" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L355" s="1" t="n">
         <v>0</v>
@@ -21020,7 +21011,7 @@
         <v>20</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>22</v>
@@ -21032,13 +21023,13 @@
         <v>0</v>
       </c>
       <c r="I356" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K356" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L356" s="1" t="n">
         <v>0</v>
@@ -21073,7 +21064,7 @@
         <v>20</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>22</v>
@@ -21085,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="I357" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" s="1" t="n">
         <v>0</v>
@@ -21109,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="Q357" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R357" s="1" t="n">
         <v>0</v>
@@ -21126,7 +21117,7 @@
         <v>20</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>22</v>
@@ -21138,13 +21129,13 @@
         <v>0</v>
       </c>
       <c r="I358" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K358" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L358" s="1" t="n">
         <v>0</v>
@@ -21179,7 +21170,7 @@
         <v>20</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>22</v>
@@ -21187,9 +21178,6 @@
       <c r="F359" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G359" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H359" s="1" t="n">
         <v>0</v>
       </c>
@@ -21218,7 +21206,7 @@
         <v>0</v>
       </c>
       <c r="Q359" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R359" s="1" t="n">
         <v>0</v>
@@ -21235,7 +21223,7 @@
         <v>20</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>22</v>
@@ -21247,13 +21235,13 @@
         <v>0</v>
       </c>
       <c r="I360" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K360" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L360" s="1" t="n">
         <v>0</v>
@@ -21271,7 +21259,7 @@
         <v>0</v>
       </c>
       <c r="Q360" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R360" s="1" t="n">
         <v>0</v>
@@ -21288,7 +21276,7 @@
         <v>20</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>22</v>
@@ -21306,7 +21294,7 @@
         <v>0</v>
       </c>
       <c r="K361" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L361" s="1" t="n">
         <v>0</v>
@@ -21324,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="Q361" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R361" s="1" t="n">
         <v>0</v>
@@ -21341,7 +21329,7 @@
         <v>20</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>22</v>
@@ -21350,16 +21338,16 @@
         <v>23</v>
       </c>
       <c r="H362" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="J362" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K362" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="L362" s="1" t="n">
         <v>0</v>
@@ -21394,7 +21382,7 @@
         <v>20</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>22</v>
@@ -21402,17 +21390,20 @@
       <c r="F363" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G363" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H363" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I363" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K363" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L363" s="1" t="n">
         <v>0</v>
@@ -21447,7 +21438,7 @@
         <v>20</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>22</v>
@@ -21456,7 +21447,7 @@
         <v>23</v>
       </c>
       <c r="H364" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" s="1" t="n">
         <v>1</v>
@@ -21465,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="K364" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L364" s="1" t="n">
         <v>0</v>
@@ -21500,7 +21491,7 @@
         <v>20</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>22</v>
@@ -21508,20 +21499,17 @@
       <c r="F365" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H365" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K365" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L365" s="1" t="n">
         <v>0</v>
@@ -21539,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="Q365" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R365" s="1" t="n">
         <v>0</v>
@@ -21556,7 +21544,7 @@
         <v>20</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>22</v>
@@ -21564,20 +21552,17 @@
       <c r="F366" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G366" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H366" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I366" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K366" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L366" s="1" t="n">
         <v>0</v>
@@ -21612,7 +21597,7 @@
         <v>20</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>22</v>
@@ -21620,20 +21605,17 @@
       <c r="F367" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G367" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H367" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K367" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L367" s="1" t="n">
         <v>0</v>
@@ -21660,1087 +21642,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K368" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R368" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S368" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H369" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K369" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R369" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S369" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G370" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R370" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S370" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K371" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R371" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S371" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K372" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R372" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S372" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K373" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R373" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S373" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G374" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H374" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K374" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R374" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S374" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K375" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R375" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S375" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K376" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R376" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S376" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K377" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q377" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R377" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S377" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K378" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R378" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S378" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q379" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R379" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S379" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q380" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R380" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S380" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q381" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R381" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S381" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H382" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K382" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R382" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S382" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R383" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S383" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K384" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R384" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S384" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K385" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q385" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R385" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S385" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K386" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R386" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S386" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K387" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R387" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S387" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -22762,7 +21683,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/presence_absence/Rogerio/INCT40.xlsx
+++ b/presence_absence/Rogerio/INCT40.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Phy_mar</t>
   </si>
   <si>
-    <t xml:space="preserve">Lep_lat</t>
+    <t xml:space="preserve">Lep_luc</t>
   </si>
   <si>
     <t xml:space="preserve">Den_min</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">Physalaemus marmoratus</t>
   </si>
   <si>
-    <t xml:space="preserve">Leptodactylus latrans</t>
+    <t xml:space="preserve">Leptodactylus luctator</t>
   </si>
   <si>
     <t xml:space="preserve">Dendropsophus minutus</t>
@@ -1620,10 +1620,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A303" activeCellId="0" sqref="A303"/>
+      <selection pane="bottomLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21682,8 +21682,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
